--- a/mapping/map_epda.xlsx
+++ b/mapping/map_epda.xlsx
@@ -1,25 +1,1200 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354EA65-B077-425E-AC45-DD195D5C6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bricks" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bricks!$A$1:$B$239</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="383">
+  <si>
+    <t>حدائق الاهرام</t>
+  </si>
+  <si>
+    <t>Hadayek Al Ahram</t>
+  </si>
+  <si>
+    <t>الحوامدية</t>
+  </si>
+  <si>
+    <t>El Hawamdia</t>
+  </si>
+  <si>
+    <t>دار السلام</t>
+  </si>
+  <si>
+    <t>Dar Elsalam - Cairo</t>
+  </si>
+  <si>
+    <t>حلوان</t>
+  </si>
+  <si>
+    <t>Helwan</t>
+  </si>
+  <si>
+    <t>الطوابق</t>
+  </si>
+  <si>
+    <t>El Tawabek</t>
+  </si>
+  <si>
+    <t>السيدة زينب</t>
+  </si>
+  <si>
+    <t>El Sayeda Zeinab</t>
+  </si>
+  <si>
+    <t>6اكتوبر</t>
+  </si>
+  <si>
+    <t>6Th Of October City 1</t>
+  </si>
+  <si>
+    <t>فيصل</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>طموه</t>
+  </si>
+  <si>
+    <t>Tamouh</t>
+  </si>
+  <si>
+    <t>الجيزة</t>
+  </si>
+  <si>
+    <t>Midan El Giza</t>
+  </si>
+  <si>
+    <t>صفط اللبن</t>
+  </si>
+  <si>
+    <t>Saft El Laban</t>
+  </si>
+  <si>
+    <t>المعادى</t>
+  </si>
+  <si>
+    <t>El Maadi</t>
+  </si>
+  <si>
+    <t>6 اكتوبر</t>
+  </si>
+  <si>
+    <t>اكتوبر</t>
+  </si>
+  <si>
+    <t>الشيخ زايد</t>
+  </si>
+  <si>
+    <t>ابوصير</t>
+  </si>
+  <si>
+    <t>Abou Seer</t>
+  </si>
+  <si>
+    <t>حدائق المعادى</t>
+  </si>
+  <si>
+    <t>Hadayek El Maadi</t>
+  </si>
+  <si>
+    <t>الهرم</t>
+  </si>
+  <si>
+    <t>El Haram</t>
+  </si>
+  <si>
+    <t>المنوات</t>
+  </si>
+  <si>
+    <t>El Manawat</t>
+  </si>
+  <si>
+    <t>ناهيا</t>
+  </si>
+  <si>
+    <t>Nahia</t>
+  </si>
+  <si>
+    <t>السيده زينب</t>
+  </si>
+  <si>
+    <t>الشيخ ذايد</t>
+  </si>
+  <si>
+    <t>المنيل</t>
+  </si>
+  <si>
+    <t>El Manyal 1</t>
+  </si>
+  <si>
+    <t>كوتسيكا</t>
+  </si>
+  <si>
+    <t>Kozeka - Tora El Asment</t>
+  </si>
+  <si>
+    <t>السلام</t>
+  </si>
+  <si>
+    <t>Madenet El Salam</t>
+  </si>
+  <si>
+    <t>الرحاب</t>
+  </si>
+  <si>
+    <t>New Cairo</t>
+  </si>
+  <si>
+    <t>روكسى</t>
+  </si>
+  <si>
+    <t>Roksi</t>
+  </si>
+  <si>
+    <t>شارع السبق -مصر الجديدة</t>
+  </si>
+  <si>
+    <t>Midan El Gamea</t>
+  </si>
+  <si>
+    <t>الهجانة</t>
+  </si>
+  <si>
+    <t>Nasr City</t>
+  </si>
+  <si>
+    <t>عين شمس</t>
+  </si>
+  <si>
+    <t>Ain Shams El Sharqeya</t>
+  </si>
+  <si>
+    <t>ارض الجولف</t>
+  </si>
+  <si>
+    <t>Ard El Golf</t>
+  </si>
+  <si>
+    <t>- الصديق ابو يكر مصر الجديدة</t>
+  </si>
+  <si>
+    <t>مصر الجديدة</t>
+  </si>
+  <si>
+    <t>Midan El Mahkama</t>
+  </si>
+  <si>
+    <t>النزهه الجديدة</t>
+  </si>
+  <si>
+    <t>El Nozha Elgdeda</t>
+  </si>
+  <si>
+    <t>قباء</t>
+  </si>
+  <si>
+    <t>شيراتون</t>
+  </si>
+  <si>
+    <t>Masaken Sheraton</t>
+  </si>
+  <si>
+    <t>الحجاز</t>
+  </si>
+  <si>
+    <t>صلاح الدين مصر الجديدة</t>
+  </si>
+  <si>
+    <t>الزاويه</t>
+  </si>
+  <si>
+    <t>El Zawya El Hamra</t>
+  </si>
+  <si>
+    <t>ع شمس</t>
+  </si>
+  <si>
+    <t>مصر الجديده</t>
+  </si>
+  <si>
+    <t>التجمع الثالت</t>
+  </si>
+  <si>
+    <t>حدائق القبة</t>
+  </si>
+  <si>
+    <t>Hadaek El Kobbah</t>
+  </si>
+  <si>
+    <t>العبور</t>
+  </si>
+  <si>
+    <t>El Obour City</t>
+  </si>
+  <si>
+    <t>مدينه نصر</t>
+  </si>
+  <si>
+    <t>السويسرى</t>
+  </si>
+  <si>
+    <t>مدينة نصر</t>
+  </si>
+  <si>
+    <t>م.نصر</t>
+  </si>
+  <si>
+    <t>جمال عبد الناصر</t>
+  </si>
+  <si>
+    <t>Ahmed Helmy St</t>
+  </si>
+  <si>
+    <t>مدبنه نصر</t>
+  </si>
+  <si>
+    <t>الشروق</t>
+  </si>
+  <si>
+    <t>El Sherouk City</t>
+  </si>
+  <si>
+    <t>وسط البلد</t>
+  </si>
+  <si>
+    <t>Bab Ellok 1</t>
+  </si>
+  <si>
+    <t>المقطم</t>
+  </si>
+  <si>
+    <t>Mansheyet Naser</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>El Mohandseen 1</t>
+  </si>
+  <si>
+    <t>الدقى</t>
+  </si>
+  <si>
+    <t>Dokki</t>
+  </si>
+  <si>
+    <t>بولاق الدكرور</t>
+  </si>
+  <si>
+    <t>Bolak El Dakroor</t>
+  </si>
+  <si>
+    <t>العجوزة</t>
+  </si>
+  <si>
+    <t>Agouza</t>
+  </si>
+  <si>
+    <t>المطرية</t>
+  </si>
+  <si>
+    <t>Elmataria - Cairo</t>
+  </si>
+  <si>
+    <t>الوراق</t>
+  </si>
+  <si>
+    <t>El Warak</t>
+  </si>
+  <si>
+    <t>امبابة</t>
+  </si>
+  <si>
+    <t>Embaba</t>
+  </si>
+  <si>
+    <t>شبرا مصر</t>
+  </si>
+  <si>
+    <t>Road El Farag</t>
+  </si>
+  <si>
+    <t>الدقي</t>
+  </si>
+  <si>
+    <t>-المهندسين</t>
+  </si>
+  <si>
+    <t>ارض اللواء</t>
+  </si>
+  <si>
+    <t>Ard El Lewaa</t>
+  </si>
+  <si>
+    <t>بشتيل</t>
+  </si>
+  <si>
+    <t>Bashteel</t>
+  </si>
+  <si>
+    <t>شبرا الخيمة</t>
+  </si>
+  <si>
+    <t>Shobra El Khiema</t>
+  </si>
+  <si>
+    <t>المرج</t>
+  </si>
+  <si>
+    <t>El Marg</t>
+  </si>
+  <si>
+    <t>عزبه النخل الغربيه</t>
+  </si>
+  <si>
+    <t>Ezbet El Nakhl</t>
+  </si>
+  <si>
+    <t>القناطر</t>
+  </si>
+  <si>
+    <t>El Kanater El Khairia</t>
+  </si>
+  <si>
+    <t>عزبه النخل</t>
+  </si>
+  <si>
+    <t>عزبة النخل</t>
+  </si>
+  <si>
+    <t>وسط البلد 1</t>
+  </si>
+  <si>
+    <t>قليوب</t>
+  </si>
+  <si>
+    <t>Kaliub</t>
+  </si>
+  <si>
+    <t>شبرا الخيمه</t>
+  </si>
+  <si>
+    <t>الخصوص</t>
+  </si>
+  <si>
+    <t>El Khosous</t>
+  </si>
+  <si>
+    <t>بنها</t>
+  </si>
+  <si>
+    <t>Banha - Atreeb</t>
+  </si>
+  <si>
+    <t>الزيتون</t>
+  </si>
+  <si>
+    <t>El Zaytoun</t>
+  </si>
+  <si>
+    <t>مدينة نصر1</t>
+  </si>
+  <si>
+    <t>شبرا</t>
+  </si>
+  <si>
+    <t>الهانوفيل</t>
+  </si>
+  <si>
+    <t>El Hanoveel</t>
+  </si>
+  <si>
+    <t>الورديان</t>
+  </si>
+  <si>
+    <t>El Werdian</t>
+  </si>
+  <si>
+    <t>اللبان</t>
+  </si>
+  <si>
+    <t>Moharam Bek</t>
+  </si>
+  <si>
+    <t>فلمنج</t>
+  </si>
+  <si>
+    <t>Fleming - El Wezara</t>
+  </si>
+  <si>
+    <t>زيزينيا</t>
+  </si>
+  <si>
+    <t>Zezenia</t>
+  </si>
+  <si>
+    <t>البيطاش</t>
+  </si>
+  <si>
+    <t>El Betash</t>
+  </si>
+  <si>
+    <t>السيوف</t>
+  </si>
+  <si>
+    <t>El Siuf Bahary</t>
+  </si>
+  <si>
+    <t>اسكندرية</t>
+  </si>
+  <si>
+    <t>Attareen - Mehatet Masr</t>
+  </si>
+  <si>
+    <t>الاسكندرية</t>
+  </si>
+  <si>
+    <t>حجر النواتيه</t>
+  </si>
+  <si>
+    <t>Hagar El Nwatia</t>
+  </si>
+  <si>
+    <t>فيكتوريا</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>المطريه</t>
+  </si>
+  <si>
+    <t>البتانون</t>
+  </si>
+  <si>
+    <t>El Batanoon</t>
+  </si>
+  <si>
+    <t>كمشيش</t>
+  </si>
+  <si>
+    <t>قويسنا</t>
+  </si>
+  <si>
+    <t>Quesna</t>
+  </si>
+  <si>
+    <t>شبين الكوم</t>
+  </si>
+  <si>
+    <t>Shebien El Kom</t>
+  </si>
+  <si>
+    <t>الشهداء</t>
+  </si>
+  <si>
+    <t>El Shohadaa</t>
+  </si>
+  <si>
+    <t>زاوية بمم</t>
+  </si>
+  <si>
+    <t>Zawyet Bemem</t>
+  </si>
+  <si>
+    <t>الدقهلية</t>
+  </si>
+  <si>
+    <t>El Mansoura 1</t>
+  </si>
+  <si>
+    <t>المنوفية</t>
+  </si>
+  <si>
+    <t>Menof</t>
+  </si>
+  <si>
+    <t>طنطا</t>
+  </si>
+  <si>
+    <t>Tanta City</t>
+  </si>
+  <si>
+    <t>اكتوبر(ن)</t>
+  </si>
+  <si>
+    <t>كرداسة</t>
+  </si>
+  <si>
+    <t>Kerdasa</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام(ن)</t>
+  </si>
+  <si>
+    <t>العمرانية</t>
+  </si>
+  <si>
+    <t>El Omrania</t>
+  </si>
+  <si>
+    <t>الدرب الاحمر</t>
+  </si>
+  <si>
+    <t>كفر الجبل</t>
+  </si>
+  <si>
+    <t>Kafr El Gabal</t>
+  </si>
+  <si>
+    <t>ابوتيح اكتوبر</t>
+  </si>
+  <si>
+    <t>15مايو</t>
+  </si>
+  <si>
+    <t>15 May City</t>
+  </si>
+  <si>
+    <t>الناصرية</t>
+  </si>
+  <si>
+    <t>حدايق الاهرام</t>
+  </si>
+  <si>
+    <t>ميدان الاسماعلية</t>
+  </si>
+  <si>
+    <t>مصر الجديدة$</t>
+  </si>
+  <si>
+    <t>حدايق القبة</t>
+  </si>
+  <si>
+    <t>سفير</t>
+  </si>
+  <si>
+    <t>الزهور</t>
+  </si>
+  <si>
+    <t>(هيلثى) مصر الجديدة</t>
+  </si>
+  <si>
+    <t>عين شمس$</t>
+  </si>
+  <si>
+    <t>امبابه</t>
+  </si>
+  <si>
+    <t>منشاه القناطر</t>
+  </si>
+  <si>
+    <t>Abo Ghalib</t>
+  </si>
+  <si>
+    <t>جزيرة محمد الوراق</t>
+  </si>
+  <si>
+    <t>بولاق</t>
+  </si>
+  <si>
+    <t>Bolak Abo El Ela</t>
+  </si>
+  <si>
+    <t>صيدليات درويش - شبرا الخيمه</t>
+  </si>
+  <si>
+    <t>ميدان الجيش 1</t>
+  </si>
+  <si>
+    <t>Abbaseya</t>
+  </si>
+  <si>
+    <t>بهتيم</t>
+  </si>
+  <si>
+    <t>Bahteem</t>
+  </si>
+  <si>
+    <t>منوف</t>
+  </si>
+  <si>
+    <t>زفتى</t>
+  </si>
+  <si>
+    <t>Zefta</t>
+  </si>
+  <si>
+    <t>اشمون</t>
+  </si>
+  <si>
+    <t>Ashmoon</t>
+  </si>
+  <si>
+    <t>ميت غمر</t>
+  </si>
+  <si>
+    <t>Meet Ghamr</t>
+  </si>
+  <si>
+    <t>ايتاى البارود</t>
+  </si>
+  <si>
+    <t>Etay El Baroud</t>
+  </si>
+  <si>
+    <t>مليج</t>
+  </si>
+  <si>
+    <t>Meleeg</t>
+  </si>
+  <si>
+    <t>بركة السبع</t>
+  </si>
+  <si>
+    <t>Berket Elsabaa</t>
+  </si>
+  <si>
+    <t>الباجور</t>
+  </si>
+  <si>
+    <t>El Bagour</t>
+  </si>
+  <si>
+    <t>تلا</t>
+  </si>
+  <si>
+    <t>Tala</t>
+  </si>
+  <si>
+    <t>محرم بك</t>
+  </si>
+  <si>
+    <t>الشاطبى</t>
+  </si>
+  <si>
+    <t>El Shatby</t>
+  </si>
+  <si>
+    <t>ابو سليمان</t>
+  </si>
+  <si>
+    <t>Abou Soliman</t>
+  </si>
+  <si>
+    <t>درباله</t>
+  </si>
+  <si>
+    <t>Derbala</t>
+  </si>
+  <si>
+    <t>مول العرب</t>
+  </si>
+  <si>
+    <t>زهراء المعادى</t>
+  </si>
+  <si>
+    <t>Zahraa El Maadi</t>
+  </si>
+  <si>
+    <t>فيصل(ن)</t>
+  </si>
+  <si>
+    <t>الحى الثالث - اكتوبر(ن)</t>
+  </si>
+  <si>
+    <t>الوايلى</t>
+  </si>
+  <si>
+    <t>El Wayli</t>
+  </si>
+  <si>
+    <t>الحى العاشر</t>
+  </si>
+  <si>
+    <t>التجمع</t>
+  </si>
+  <si>
+    <t>وسط البلد $</t>
+  </si>
+  <si>
+    <t>المنصوريه</t>
+  </si>
+  <si>
+    <t>El Mansourya</t>
+  </si>
+  <si>
+    <t>الزمالك</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>اوسيم</t>
+  </si>
+  <si>
+    <t>Awseem</t>
+  </si>
+  <si>
+    <t>روض الفرج</t>
+  </si>
+  <si>
+    <t>سنديون</t>
+  </si>
+  <si>
+    <t>Sendion</t>
+  </si>
+  <si>
+    <t>المحلة الكبرى</t>
+  </si>
+  <si>
+    <t>El Mahala El Kobra</t>
+  </si>
+  <si>
+    <t>اجا</t>
+  </si>
+  <si>
+    <t>Aga</t>
+  </si>
+  <si>
+    <t>الدلجمون</t>
+  </si>
+  <si>
+    <t>Kafr El Zayat</t>
+  </si>
+  <si>
+    <t>المنصورة</t>
+  </si>
+  <si>
+    <t>كفر المنصورة</t>
+  </si>
+  <si>
+    <t>المحلة</t>
+  </si>
+  <si>
+    <t>الابراهيميه</t>
+  </si>
+  <si>
+    <t>El Ebrahimia-Alex</t>
+  </si>
+  <si>
+    <t>المندرة</t>
+  </si>
+  <si>
+    <t>El Mandara</t>
+  </si>
+  <si>
+    <t>باكوس</t>
+  </si>
+  <si>
+    <t>Baccos - El Raml El Meery</t>
+  </si>
+  <si>
+    <t>محطة الرمل</t>
+  </si>
+  <si>
+    <t>Mehatet El Raml</t>
+  </si>
+  <si>
+    <t>سموحه</t>
+  </si>
+  <si>
+    <t>Smoha - Ezbet Saad</t>
+  </si>
+  <si>
+    <t>سبورتنج</t>
+  </si>
+  <si>
+    <t>Sporting</t>
+  </si>
+  <si>
+    <t>العطارين</t>
+  </si>
+  <si>
+    <t>الطالبية</t>
+  </si>
+  <si>
+    <t>El Talbeia (Faisal)</t>
+  </si>
+  <si>
+    <t>ترسا</t>
+  </si>
+  <si>
+    <t>Kaha</t>
+  </si>
+  <si>
+    <t>السيدة عائشة</t>
+  </si>
+  <si>
+    <t>Masr El Qadima</t>
+  </si>
+  <si>
+    <t>حدائق الاهرام ن</t>
+  </si>
+  <si>
+    <t>العباسية</t>
+  </si>
+  <si>
+    <t>المقطم $</t>
+  </si>
+  <si>
+    <t>عباس العقاد</t>
+  </si>
+  <si>
+    <t>مدينة السلام</t>
+  </si>
+  <si>
+    <t>العجوزه</t>
+  </si>
+  <si>
+    <t>الكوم الاحمر</t>
+  </si>
+  <si>
+    <t>El Kom Al Ahmar</t>
+  </si>
+  <si>
+    <t>مصر الجديدة 1</t>
+  </si>
+  <si>
+    <t>طنبدى</t>
+  </si>
+  <si>
+    <t>Kafr Tunbdy</t>
+  </si>
+  <si>
+    <t>القبارى</t>
+  </si>
+  <si>
+    <t>El Qabary</t>
+  </si>
+  <si>
+    <t>اسكوت</t>
+  </si>
+  <si>
+    <t>El Raas El Souda</t>
+  </si>
+  <si>
+    <t>العماروه</t>
+  </si>
+  <si>
+    <t>El Hadra</t>
+  </si>
+  <si>
+    <t>بحرى</t>
+  </si>
+  <si>
+    <t>Bahary</t>
+  </si>
+  <si>
+    <t>العوايد</t>
+  </si>
+  <si>
+    <t>El Awaied</t>
+  </si>
+  <si>
+    <t>سيدى بشر</t>
+  </si>
+  <si>
+    <t>Sidi Beshr Bahary</t>
+  </si>
+  <si>
+    <t>الجمرك</t>
+  </si>
+  <si>
+    <t>El Gomrok</t>
+  </si>
+  <si>
+    <t>وينجت</t>
+  </si>
+  <si>
+    <t>مستشفى جامعة مصر للعلوم والتكنولوجيا</t>
+  </si>
+  <si>
+    <t>اسيل (اللوتس)</t>
+  </si>
+  <si>
+    <t>عادل الجوهري</t>
+  </si>
+  <si>
+    <t>صيادلة العرب</t>
+  </si>
+  <si>
+    <t>الفاروق لادارة الصيدليات</t>
+  </si>
+  <si>
+    <t>سعيد عبد الفتاح(كيبلينيك)</t>
+  </si>
+  <si>
+    <t>السيد محمد احمد شبرا الخيمة</t>
+  </si>
+  <si>
+    <t>جمعية الخلفاء الراشدين 1</t>
+  </si>
+  <si>
+    <t>احمد محمد عبد القوى الجديدة</t>
+  </si>
+  <si>
+    <t>احمد و احمد مصر الجديدة</t>
+  </si>
+  <si>
+    <t>الجامعة العربية</t>
+  </si>
+  <si>
+    <t>الرمل(محمد عبده الفرماوى)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مراكز</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> منشأه القناطر</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كفر المصيلحة</t>
+  </si>
+  <si>
+    <t>ميت خلف</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المحله الكبرى</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المحله</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> مجلس الأمه</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حدائق المعادى</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المندره</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> العصافره</t>
+  </si>
+  <si>
+    <t>El Asafra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المنيب</t>
+  </si>
+  <si>
+    <t>Sakyet Mekky</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كفرالجبل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> كورنيش</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> المعتمدية</t>
+  </si>
+  <si>
+    <t>El Motemdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> جناكليس</t>
+  </si>
+  <si>
+    <t>Ganaklees (Alex)</t>
+  </si>
+  <si>
+    <t>المنشية</t>
+  </si>
+  <si>
+    <t>El Mansheya (Alex)</t>
+  </si>
+  <si>
+    <t>اشرف محمد السعيد 6اكتوبر</t>
+  </si>
+  <si>
+    <t>رانيا فوزى ج (هيلثى)زهراء المعادى</t>
+  </si>
+  <si>
+    <t>مكرم (هلال)</t>
+  </si>
+  <si>
+    <t>نهى ابو النور(جمال) الحى الثانى</t>
+  </si>
+  <si>
+    <t>مستشفى اندلسيه سموحه</t>
+  </si>
+  <si>
+    <t>السفارات</t>
+  </si>
+  <si>
+    <t>ايه محمد (هلال)</t>
+  </si>
+  <si>
+    <t>البراجيل</t>
+  </si>
+  <si>
+    <t>El Barageel</t>
+  </si>
+  <si>
+    <t>مستشفى جمال الدين الافغاني 1</t>
+  </si>
+  <si>
+    <t>التجمع 1</t>
+  </si>
+  <si>
+    <t>شبين الكومِ</t>
+  </si>
+  <si>
+    <t>الحضره</t>
+  </si>
+  <si>
+    <t>الرابعه الناصريه</t>
+  </si>
+  <si>
+    <t>Abees</t>
+  </si>
+  <si>
+    <t>غبريال</t>
+  </si>
+  <si>
+    <t>Ghobrial - El Mahrosa</t>
+  </si>
+  <si>
+    <t>ميامى</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>خورشيد</t>
+  </si>
+  <si>
+    <t>Khorshed</t>
+  </si>
+  <si>
+    <t>سان ستيفانو</t>
+  </si>
+  <si>
+    <t>San Stefano</t>
+  </si>
+  <si>
+    <t>بدر</t>
+  </si>
+  <si>
+    <t>Badr City</t>
+  </si>
+  <si>
+    <t>ع.شمس</t>
+  </si>
+  <si>
+    <t>Ain Shams El Gharbeya</t>
+  </si>
+  <si>
+    <t>النزهه</t>
+  </si>
+  <si>
+    <t>El Nozha</t>
+  </si>
+  <si>
+    <t>(هيلثى)التجمع الخامس</t>
+  </si>
+  <si>
+    <t>Tagamoa 5</t>
+  </si>
+  <si>
+    <t>طرة البلد</t>
+  </si>
+  <si>
+    <t>Tora El Balad</t>
+  </si>
+  <si>
+    <t>بركه السبع</t>
+  </si>
+  <si>
+    <t>كفر الزيات</t>
+  </si>
+  <si>
+    <t>الراهبين</t>
+  </si>
+  <si>
+    <t>Samanoud</t>
+  </si>
+  <si>
+    <t>شدس</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>جليم</t>
+  </si>
+  <si>
+    <t>Gleem - Stanly</t>
+  </si>
+  <si>
+    <t>El Rehab City</t>
+  </si>
+  <si>
+    <t>Tagamoa 3</t>
+  </si>
+  <si>
+    <t>Tagamoa 1</t>
+  </si>
+  <si>
+    <t>El Sheikh Zayed-October</t>
+  </si>
+  <si>
+    <t>dist_brickcode</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>dist_itemcode</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +1224,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +1507,2039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B67" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B76" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B80" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B82" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B83" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B86" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B91" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B96" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B97" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B98" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B103" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B105" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B112" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B113" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B114" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B116" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B119" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B121" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B122" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B123" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B124" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B125" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B127" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B131" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B132" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B133" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B134" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B136" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B137" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B138" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B143" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B144" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B145" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B147" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B149" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B151" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B152" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B153" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B154" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B155" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B157" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B158" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B159" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B160" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B161" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B162" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B163" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B164" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B165" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B167" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B170" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B171" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B172" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B173" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B174" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B176" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B177" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B178" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B179" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B180" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B181" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B182" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B183" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B184" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B186" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B187" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B188" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B189" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B190" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B191" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B193" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B194" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B195" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B196" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B198" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B199" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B200" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B201" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B202" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B203" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B205" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B206" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B207" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B208" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B209" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B210" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B211" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B212" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B214" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B215" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B216" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B217" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B218" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B219" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B220" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B221" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B222" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B223" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B224" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B225" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B226" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B227" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B228" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B229" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B230" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B231" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B232" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B233" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B234" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B235" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B236" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B237" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B238" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B239" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778B1C4-B0C7-4219-952C-EC407EE815CE}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>18751302</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6224011259019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>18743823</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6225000366435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>18743844</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6225000366466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>18743843</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6225000366473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>18751026</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6225000366480</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>18751301</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6225000366459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>18743821</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6225000366442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>18743519</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6225000366473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>18727853</v>
+      </c>
+      <c r="B10" s="2">
+        <v>6225000366442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>18751724</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6225000366435</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mapping/map_epda.xlsx
+++ b/mapping/map_epda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5354EA65-B077-425E-AC45-DD195D5C6131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CB8ECF-C658-4A1B-80A0-7D4CCBCC8620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="386">
   <si>
     <t>حدائق الاهرام</t>
   </si>
@@ -1189,12 +1189,24 @@
   </si>
   <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>added_by</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1224,10 +1236,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1508,1928 +1521,3363 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B239"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C2" sqref="C2:D239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B1" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>385</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B16" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>385</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>385</v>
+      </c>
+      <c r="D17" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D18" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>385</v>
+      </c>
+      <c r="D19" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>385</v>
+      </c>
+      <c r="D20" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>385</v>
+      </c>
+      <c r="D21" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>385</v>
+      </c>
+      <c r="D22" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D23" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>385</v>
+      </c>
+      <c r="D24" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D25" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B26" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>385</v>
+      </c>
+      <c r="D26" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B27" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>385</v>
+      </c>
+      <c r="D27" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>385</v>
+      </c>
+      <c r="D29" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>385</v>
+      </c>
+      <c r="D30" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>385</v>
+      </c>
+      <c r="D31" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>385</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>385</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D34" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B35" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>385</v>
+      </c>
+      <c r="D36" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B37" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>385</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>385</v>
+      </c>
+      <c r="D38" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>385</v>
+      </c>
+      <c r="D39" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>385</v>
+      </c>
+      <c r="D41" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>385</v>
+      </c>
+      <c r="D42" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B43" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D43" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B44" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D44" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B45" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>385</v>
+      </c>
+      <c r="D45" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B46" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>385</v>
+      </c>
+      <c r="D46" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>385</v>
+      </c>
+      <c r="D47" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B48" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>385</v>
+      </c>
+      <c r="D48" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B50" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>385</v>
+      </c>
+      <c r="D50" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B52" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B53" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B54" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B56" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B57" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>385</v>
+      </c>
+      <c r="D57" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B58" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B59" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>385</v>
+      </c>
+      <c r="D59" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B60" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>385</v>
+      </c>
+      <c r="D60" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B61" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B63" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B64" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B65" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B66" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>385</v>
+      </c>
+      <c r="D66" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B67" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B68" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>385</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B69" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>385</v>
+      </c>
+      <c r="D69" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B70" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>385</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B71" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>385</v>
+      </c>
+      <c r="D71" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B72" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>385</v>
+      </c>
+      <c r="D72" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B73" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>385</v>
+      </c>
+      <c r="D73" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B74" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>385</v>
+      </c>
+      <c r="D74" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B75" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>385</v>
+      </c>
+      <c r="D75" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B76" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B77" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>385</v>
+      </c>
+      <c r="D77" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>385</v>
+      </c>
+      <c r="D78" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B79" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>385</v>
+      </c>
+      <c r="D79" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B80" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>385</v>
+      </c>
+      <c r="D80" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B81" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>385</v>
+      </c>
+      <c r="D81" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B82" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>385</v>
+      </c>
+      <c r="D82" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B83" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>385</v>
+      </c>
+      <c r="D83" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B84" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>385</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B85" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B86" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>385</v>
+      </c>
+      <c r="D86" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B87" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B88" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B89" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>385</v>
+      </c>
+      <c r="D89" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B90" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>385</v>
+      </c>
+      <c r="D90" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B91" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B92" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B93" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>385</v>
+      </c>
+      <c r="D93" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B94" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>385</v>
+      </c>
+      <c r="D94" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B95" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>385</v>
+      </c>
+      <c r="D95" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B96" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>385</v>
+      </c>
+      <c r="D96" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B97" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B98" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>385</v>
+      </c>
+      <c r="D98" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B99" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B100" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>385</v>
+      </c>
+      <c r="D100" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B101" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D101" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>385</v>
+      </c>
+      <c r="D102" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B103" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>385</v>
+      </c>
+      <c r="D103" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>385</v>
+      </c>
+      <c r="D104" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B105" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>385</v>
+      </c>
+      <c r="D105" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B106" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>385</v>
+      </c>
+      <c r="D106" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B107" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>385</v>
+      </c>
+      <c r="D107" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>385</v>
+      </c>
+      <c r="D108" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B109" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>385</v>
+      </c>
+      <c r="D109" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>385</v>
+      </c>
+      <c r="D110" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B111" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>385</v>
+      </c>
+      <c r="D111" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B112" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>385</v>
+      </c>
+      <c r="D112" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B113" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>385</v>
+      </c>
+      <c r="D113" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B114" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>385</v>
+      </c>
+      <c r="D114" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B115" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>385</v>
+      </c>
+      <c r="D115" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B116" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>385</v>
+      </c>
+      <c r="D116" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>385</v>
+      </c>
+      <c r="D117" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B118" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>385</v>
+      </c>
+      <c r="D118" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B119" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>385</v>
+      </c>
+      <c r="D119" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B120" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>385</v>
+      </c>
+      <c r="D120" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B121" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>385</v>
+      </c>
+      <c r="D121" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B122" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B123" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>385</v>
+      </c>
+      <c r="D123" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B124" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B125" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>385</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B126" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>385</v>
+      </c>
+      <c r="D126" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B127" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>385</v>
+      </c>
+      <c r="D127" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B128" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>385</v>
+      </c>
+      <c r="D128" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B129" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>385</v>
+      </c>
+      <c r="D129" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B130" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>385</v>
+      </c>
+      <c r="D130" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B131" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>385</v>
+      </c>
+      <c r="D131" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B132" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>385</v>
+      </c>
+      <c r="D132" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B133" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>385</v>
+      </c>
+      <c r="D133" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B134" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>385</v>
+      </c>
+      <c r="D134" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B135" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>385</v>
+      </c>
+      <c r="D135" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B136" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B137" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>385</v>
+      </c>
+      <c r="D137" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B138" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>385</v>
+      </c>
+      <c r="D138" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B139" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B140" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>385</v>
+      </c>
+      <c r="D140" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B141" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>385</v>
+      </c>
+      <c r="D141" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B142" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>385</v>
+      </c>
+      <c r="D142" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B143" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>385</v>
+      </c>
+      <c r="D143" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B144" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>385</v>
+      </c>
+      <c r="D144" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B145" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>385</v>
+      </c>
+      <c r="D145" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B146" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>385</v>
+      </c>
+      <c r="D146" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B147" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>385</v>
+      </c>
+      <c r="D147" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B148" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>385</v>
+      </c>
+      <c r="D148" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B149" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>385</v>
+      </c>
+      <c r="D149" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B150" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>385</v>
+      </c>
+      <c r="D150" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B151" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>385</v>
+      </c>
+      <c r="D151" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>247</v>
       </c>
       <c r="B152" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>385</v>
+      </c>
+      <c r="D152" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B153" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>385</v>
+      </c>
+      <c r="D153" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B154" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>385</v>
+      </c>
+      <c r="D154" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>253</v>
       </c>
       <c r="B155" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>385</v>
+      </c>
+      <c r="D155" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B156" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>385</v>
+      </c>
+      <c r="D156" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B157" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>385</v>
+      </c>
+      <c r="D157" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B158" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>385</v>
+      </c>
+      <c r="D158" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B159" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>385</v>
+      </c>
+      <c r="D159" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B160" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>385</v>
+      </c>
+      <c r="D160" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B161" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>385</v>
+      </c>
+      <c r="D161" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>264</v>
       </c>
       <c r="B162" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>385</v>
+      </c>
+      <c r="D162" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B163" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>385</v>
+      </c>
+      <c r="D163" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B164" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>385</v>
+      </c>
+      <c r="D164" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B165" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>385</v>
+      </c>
+      <c r="D165" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B166" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>385</v>
+      </c>
+      <c r="D166" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B167" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>385</v>
+      </c>
+      <c r="D167" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B168" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>385</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B169" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>385</v>
+      </c>
+      <c r="D169" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B170" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>385</v>
+      </c>
+      <c r="D170" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B171" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>385</v>
+      </c>
+      <c r="D171" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B172" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>385</v>
+      </c>
+      <c r="D172" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B173" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>385</v>
+      </c>
+      <c r="D173" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B174" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>385</v>
+      </c>
+      <c r="D174" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>283</v>
       </c>
       <c r="B175" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>385</v>
+      </c>
+      <c r="D175" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B176" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>385</v>
+      </c>
+      <c r="D176" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B177" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>385</v>
+      </c>
+      <c r="D177" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B178" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>385</v>
+      </c>
+      <c r="D178" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B179" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>385</v>
+      </c>
+      <c r="D179" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B180" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>385</v>
+      </c>
+      <c r="D180" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>294</v>
       </c>
       <c r="B181" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>385</v>
+      </c>
+      <c r="D181" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B182" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>385</v>
+      </c>
+      <c r="D182" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>298</v>
       </c>
       <c r="B183" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>385</v>
+      </c>
+      <c r="D183" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B184" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>385</v>
+      </c>
+      <c r="D184" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B185" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>385</v>
+      </c>
+      <c r="D185" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>302</v>
       </c>
       <c r="B186" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>385</v>
+      </c>
+      <c r="D186" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B187" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>385</v>
+      </c>
+      <c r="D187" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>304</v>
       </c>
       <c r="B188" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>385</v>
+      </c>
+      <c r="D188" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B189" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>385</v>
+      </c>
+      <c r="D189" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>306</v>
       </c>
       <c r="B190" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>385</v>
+      </c>
+      <c r="D190" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B191" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B192" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B193" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>385</v>
+      </c>
+      <c r="D193" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>310</v>
       </c>
       <c r="B194" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>385</v>
+      </c>
+      <c r="D194" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B195" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>385</v>
+      </c>
+      <c r="D195" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B196" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>385</v>
+      </c>
+      <c r="D196" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>385</v>
+      </c>
+      <c r="D197" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B198" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>385</v>
+      </c>
+      <c r="D198" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B199" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>385</v>
+      </c>
+      <c r="D199" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>316</v>
       </c>
       <c r="B200" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>385</v>
+      </c>
+      <c r="D200" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B201" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>385</v>
+      </c>
+      <c r="D201" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>318</v>
       </c>
       <c r="B202" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>385</v>
+      </c>
+      <c r="D202" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B203" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>385</v>
+      </c>
+      <c r="D203" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>320</v>
       </c>
       <c r="B204" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>385</v>
+      </c>
+      <c r="D204" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B205" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>385</v>
+      </c>
+      <c r="D205" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>322</v>
       </c>
       <c r="B206" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>385</v>
+      </c>
+      <c r="D206" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B207" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>385</v>
+      </c>
+      <c r="D207" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B208" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>385</v>
+      </c>
+      <c r="D208" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>327</v>
       </c>
       <c r="B209" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>385</v>
+      </c>
+      <c r="D209" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B210" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>385</v>
+      </c>
+      <c r="D210" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B211" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>385</v>
+      </c>
+      <c r="D211" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B212" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>385</v>
+      </c>
+      <c r="D212" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B213" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>385</v>
+      </c>
+      <c r="D213" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>335</v>
       </c>
       <c r="B214" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>385</v>
+      </c>
+      <c r="D214" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B215" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>385</v>
+      </c>
+      <c r="D215" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>337</v>
       </c>
       <c r="B216" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>385</v>
+      </c>
+      <c r="D216" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B217" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>385</v>
+      </c>
+      <c r="D217" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B218" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>385</v>
+      </c>
+      <c r="D218" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>340</v>
       </c>
       <c r="B219" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>385</v>
+      </c>
+      <c r="D219" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B220" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>385</v>
+      </c>
+      <c r="D220" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B221" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>385</v>
+      </c>
+      <c r="D221" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>344</v>
       </c>
       <c r="B222" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>385</v>
+      </c>
+      <c r="D222" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B223" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>385</v>
+      </c>
+      <c r="D223" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>346</v>
       </c>
       <c r="B224" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>385</v>
+      </c>
+      <c r="D224" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B225" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>385</v>
+      </c>
+      <c r="D225" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B226" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>385</v>
+      </c>
+      <c r="D226" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B227" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>385</v>
+      </c>
+      <c r="D227" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B228" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>385</v>
+      </c>
+      <c r="D228" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>355</v>
       </c>
       <c r="B229" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>385</v>
+      </c>
+      <c r="D229" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B230" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>385</v>
+      </c>
+      <c r="D230" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>359</v>
       </c>
       <c r="B231" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>385</v>
+      </c>
+      <c r="D231" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B232" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>385</v>
+      </c>
+      <c r="D232" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B233" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>385</v>
+      </c>
+      <c r="D233" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B234" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>385</v>
+      </c>
+      <c r="D234" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B235" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>385</v>
+      </c>
+      <c r="D235" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B236" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>385</v>
+      </c>
+      <c r="D236" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B237" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>385</v>
+      </c>
+      <c r="D237" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B238" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>385</v>
+      </c>
+      <c r="D238" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B239" t="s">
         <v>374</v>
+      </c>
+      <c r="C239" t="s">
+        <v>385</v>
+      </c>
+      <c r="D239" s="3">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
@@ -3439,104 +4887,172 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F778B1C4-B0C7-4219-952C-EC407EE815CE}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>18751302</v>
       </c>
       <c r="B2" s="2">
         <v>6224011259019</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>18743823</v>
       </c>
       <c r="B3" s="2">
         <v>6225000366435</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>18743844</v>
       </c>
       <c r="B4" s="2">
         <v>6225000366466</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>18743843</v>
       </c>
       <c r="B5" s="2">
         <v>6225000366473</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>18751026</v>
       </c>
       <c r="B6" s="2">
         <v>6225000366480</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>18751301</v>
       </c>
       <c r="B7" s="2">
         <v>6225000366459</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>18743821</v>
       </c>
       <c r="B8" s="2">
         <v>6225000366442</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>18743519</v>
       </c>
       <c r="B9" s="2">
         <v>6225000366473</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>385</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18727853</v>
       </c>
       <c r="B10" s="2">
         <v>6225000366442</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>18751724</v>
       </c>
       <c r="B11" s="2">
         <v>6225000366435</v>
+      </c>
+      <c r="C11" t="s">
+        <v>385</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
